--- a/assets/benchmark.xlsx
+++ b/assets/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katshun/dev/miniml_compiler/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5FE912-5D94-2F4E-85E9-87A441C5AE2B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCBD9EF-9F0C-1146-AA9D-C24279A13A07}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{49EE3DC5-30C8-AA4B-9CAE-F905FE6C1531}"/>
+    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{49EE3DC5-30C8-AA4B-9CAE-F905FE6C1531}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>C opt</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>fact</t>
+  </si>
+  <si>
+    <t>benchmark</t>
   </si>
 </sst>
 </file>
@@ -816,22 +819,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.99E-4</c:v>
+                  <c:v>2.0799999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5799999999999998E-4</c:v>
+                  <c:v>2.1100000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.225E-4</c:v>
+                  <c:v>1.35885E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2750000000000001E-4</c:v>
+                  <c:v>1.1661400000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4916699999999999E-4</c:v>
+                  <c:v>1.13125E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.24144E-4</c:v>
+                  <c:v>1.12656E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3060,6 +3063,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3130,22 +3136,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>2.99E-4</v>
+        <v>2.0799999999999999E-4</v>
       </c>
       <c r="C4">
-        <v>2.5799999999999998E-4</v>
+        <v>2.1100000000000001E-4</v>
       </c>
       <c r="D4">
-        <v>1.225E-4</v>
+        <v>1.35885E-4</v>
       </c>
       <c r="E4">
-        <v>1.2750000000000001E-4</v>
+        <v>1.1661400000000001E-4</v>
       </c>
       <c r="F4">
-        <v>1.4916699999999999E-4</v>
+        <v>1.13125E-4</v>
       </c>
       <c r="G4">
-        <v>1.24144E-4</v>
+        <v>1.12656E-4</v>
       </c>
     </row>
   </sheetData>

--- a/assets/benchmark.xlsx
+++ b/assets/benchmark.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katshun/dev/miniml_compiler/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCBD9EF-9F0C-1146-AA9D-C24279A13A07}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C726E523-651F-9E4D-9967-2AAB3934C397}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{49EE3DC5-30C8-AA4B-9CAE-F905FE6C1531}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$2:$A$4</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$2:$B$4</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -64,7 +69,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,7 +238,7 @@
                   <c:v>3.3330000000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1770000000000002E-5</c:v>
+                  <c:v>3.1769999999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.281E-6</c:v>
@@ -1010,6 +1015,568 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C opt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>many_add</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sigma_loop</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.5300000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3399999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>2.0799999999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-224F-094D-AAF7-F05FD4EF1E40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1904270511"/>
+        <c:axId val="1888042127"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1904270511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1888042127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1888042127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1904270511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>reg_opt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>many_add</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sigma_loop</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.281E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2479200000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.12656E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-224F-094D-AAF7-F05FD4EF1E40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1904270511"/>
+        <c:axId val="1888042127"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1904270511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1888042127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1888042127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1904270511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1130,6 +1697,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2137,6 +2784,1012 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2746,6 +4399,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>56243</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07C7211-2536-7E4A-9C32-CEAFEB20D829}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>878115</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>433615</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA34E3A2-25C2-D849-B99A-48E04E7F24E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3053,16 +4778,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FFA00A-8FE4-9F4D-AC98-08402F88DC70}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3085,7 +4810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3102,13 +4827,13 @@
         <v>3.3330000000000001E-6</v>
       </c>
       <c r="F2" s="1">
-        <v>3.1770000000000002E-5</v>
+        <v>3.1769999999999998E-6</v>
       </c>
       <c r="G2" s="1">
         <v>3.281E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3131,7 +4856,7 @@
         <v>1.2479200000000001E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>8</v>
       </c>
